--- a/app-1 (todo)/files/todos_summary.xlsx
+++ b/app-1 (todo)/files/todos_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,27 +459,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sleep
-</t>
+          <t>Do Cv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Do Cv</t>
+          <t>Complete This Cours</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
-        <is>
-          <t>Complete This Cours</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
         <is>
           <t>Do 3H Of Python Course</t>
         </is>

--- a/app-1 (todo)/files/todos_summary.xlsx
+++ b/app-1 (todo)/files/todos_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,20 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Start The Mean Stack Cours</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Opne A Back Account</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app-1 (todo)/files/todos_summary.xlsx
+++ b/app-1 (todo)/files/todos_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,35 +459,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Do Cv</t>
+          <t>Complete This Cours</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Complete This Cours</t>
+          <t>Start The Mean Stack Cours</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Do 3H Of Python Course</t>
+          <t>Opne A Back Account</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Start The Mean Stack Cours</t>
+          <t>Update Upwork Profile</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Opne A Back Account</t>
+          <t>Fix Upwork To Show For Every Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Continue 3H Of Python Cours</t>
         </is>
       </c>
     </row>

--- a/app-1 (todo)/files/todos_summary.xlsx
+++ b/app-1 (todo)/files/todos_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,13 +491,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Continue 3H Of Python Cours</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app-1 (todo)/files/todos_summary.xlsx
+++ b/app-1 (todo)/files/todos_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,14 +480,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Update Upwork Profile</t>
+          <t>Continue Python App Course</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fix Upwork To Show For Every Body</t>
+          <t>Chill Day 😁</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1H Py Apps Course</t>
         </is>
       </c>
     </row>

--- a/app-1 (todo)/files/todos_summary.xlsx
+++ b/app-1 (todo)/files/todos_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,13 +491,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1H Py Apps Course</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
